--- a/tests/testthat/_output_excel_snaps/xlr_table_to_sheet.xlsx
+++ b/tests/testthat/_output_excel_snaps/xlr_table_to_sheet.xlsx
@@ -886,7 +886,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="12" max="12" width="30.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2171,7 +2182,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="12" max="12" width="30.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3463,7 +3485,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="12" max="12" width="30.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4755,7 +4788,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="12" max="12" width="30.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
